--- a/CAPR.xlsx
+++ b/CAPR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC108A8-3BD6-48B8-9DFA-A789F62DF639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5196B65E-2D4D-409E-AB7B-3E86E737956E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25770" yWindow="4950" windowWidth="24315" windowHeight="15345" activeTab="2" xr2:uid="{BF14CAB3-0C0C-4694-B9CA-7CC550084526}"/>
+    <workbookView xWindow="42150" yWindow="2920" windowWidth="22230" windowHeight="14240" activeTab="2" xr2:uid="{BF14CAB3-0C0C-4694-B9CA-7CC550084526}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
   <si>
     <t>Price</t>
   </si>
@@ -158,12 +158,78 @@
   </si>
   <si>
     <t>3 patients in the placebo arm discontinued: n=2 after 2 infusions and n=1 after 1 infusion, resulting in 9 followed for full 12 months.</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>PIC</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Q123</t>
+  </si>
+  <si>
+    <t>Q223</t>
+  </si>
+  <si>
+    <t>Q323</t>
+  </si>
+  <si>
+    <t>Q423</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
+  <si>
+    <t>CFFO</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>6-9B heart cells, 2-3B cardiomyocytes</t>
+  </si>
+  <si>
+    <t>150m cells by IV --&gt; only 0.15% ever reach the heart? T1/2 = 24h?</t>
+  </si>
+  <si>
+    <t>3 months: 1.2, 6 months: 1.5, 9 months: 1.5, 12 months: 2.6</t>
+  </si>
+  <si>
+    <t>CAP-1002 at 12 months: 65.5 (10.8 SE, 31SD) -0.75 (2.6 delta)</t>
+  </si>
+  <si>
+    <t>placebo at 12 months: 29.3 (9.2 SE, 32 SD) - -3.36</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -301,11 +367,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -319,6 +384,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -339,6 +408,971 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>deramiocel!$B$27:$F$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1E56-4B16-8854-6C9DBE8FF2AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1467493696"/>
+        <c:axId val="1467490816"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1467493696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1467490816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1467490816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1467493696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>65484</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>140493</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>188516</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>26193</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF078B9A-6F8C-57D0-7E7F-40DD1BBCF8BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>562760</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>604791</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>74050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4609242F-4D13-321D-1D4B-3A95326CF731}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8125610" y="2781300"/>
+          <a:ext cx="5528431" cy="3674500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>79376</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>24542</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>79376</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFA8A122-7C51-1A38-08E3-7F996CDE2590}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14430375" y="1825626"/>
+          <a:ext cx="6977792" cy="4603750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>156845</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>141942</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>571036</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>102019</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EDF4770-410D-7527-4B99-45C1440068C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7754433" y="6611471"/>
+          <a:ext cx="7152662" cy="5607842"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -658,131 +1692,141 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48636C82-AED4-4D1E-B69C-D638906C4BC1}">
-  <dimension ref="B2:L11"/>
+  <dimension ref="B2:L13"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
-    </sheetView>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="3.7265625" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
       <c r="J2" t="s">
         <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>10.37</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+        <v>10.039999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
+      <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="4"/>
+      <c r="G3" s="3"/>
       <c r="J3" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="15">
-        <v>35.218628000000002</v>
-      </c>
-      <c r="L3" s="16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="5"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="4"/>
+      <c r="K3" s="14">
+        <v>45.707819000000001</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="4"/>
+      <c r="G4" s="3"/>
       <c r="J4" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="14">
         <f>+K2*K3</f>
-        <v>365.21717236000001</v>
-      </c>
-      <c r="L4" s="16"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="5"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="4"/>
+        <v>458.90650275999997</v>
+      </c>
+      <c r="L4" s="15"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="G5" s="3"/>
       <c r="J5" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="15">
-        <f>11.286996+140.228881</f>
-        <v>151.51587699999999</v>
-      </c>
-      <c r="L5" s="16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
+      <c r="K5" s="14">
+        <f>115.982893+28.794503</f>
+        <v>144.77739600000001</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7"/>
       <c r="J6" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="14">
         <v>0</v>
       </c>
-      <c r="L6" s="16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L6" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J7" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="14">
         <f>+K4-K5+K6</f>
-        <v>213.70129536000002</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+        <v>314.12910675999996</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="14">
+        <v>350.01299999999998</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="14">
+        <v>-224.226</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="J11" t="s">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J13" t="s">
         <v>12</v>
       </c>
     </row>
@@ -793,37 +1837,119 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6FE7A31-D5D6-4383-8581-002AD62CC3D3}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="8.7265625" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C2" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17">
+        <v>-1.26844</v>
+      </c>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17">
+        <v>-6.4335199999999997</v>
+      </c>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{3A728F07-9E77-4091-A515-4A358B92A239}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC8139D-9143-47B3-84C4-3BE05C923E9F}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Q44" sqref="Q44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.54296875" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>15</v>
       </c>
@@ -831,7 +1957,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -839,17 +1965,17 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>19</v>
       </c>
@@ -857,7 +1983,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>34</v>
       </c>
@@ -865,73 +1991,118 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C10" s="14" t="s">
+    <row r="12" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="C12" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C12" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C14" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C15" t="s">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C16" t="s">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C17" s="13" t="s">
+    <row r="19" spans="2:6" ht="13" x14ac:dyDescent="0.3">
+      <c r="C19" s="12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C18" s="13" t="s">
+    <row r="20" spans="2:6" ht="13" x14ac:dyDescent="0.3">
+      <c r="C20" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C19" t="s">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C21" s="14" t="s">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="13" x14ac:dyDescent="0.3">
+      <c r="C25" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>1.2</v>
+      </c>
+      <c r="D27">
+        <v>1.5</v>
+      </c>
+      <c r="E27">
+        <v>1.5</v>
+      </c>
+      <c r="F27">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="13" x14ac:dyDescent="0.3">
+      <c r="C30" s="13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C22" t="s">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
         <v>25</v>
       </c>
     </row>
@@ -940,5 +2111,6 @@
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{B92359C9-F5F9-4BBB-9B07-E5430B615648}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>